--- a/biology/Botanique/Linum_lewisii/Linum_lewisii.xlsx
+++ b/biology/Botanique/Linum_lewisii/Linum_lewisii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lin de Lewis, Linum lewisii, est une espèce de plantes à fleurs de la famille des Linaceae présente à l’Ouest de États-Unis jusqu'au nord du Mexique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante atteint environ 90 cm et possèdent des feuilles lancéolées de 1 à 2 cm de long. Les fleurs sont bleu pâle ou de couleur lavande à blanc. D’une taille de 1,5 à 3 cm de diamètre, les fleurs ont cinq pétales.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est présente de l’Alaska au nord du Mexique et de l’océan Pacifique jusqu’au fleuve Mississippi.
 Le lin de Lewis pousse sur des terrains peu humides à des altitudes pouvant aller jusque 3 000 m au sud de son aire de répartition. 
@@ -574,9 +590,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 juillet 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 juillet 2017) :
 variété Linum lewisii var. alpicola
 variété Linum lewisii var. lepagei</t>
         </is>
